--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\javascript\solvd-homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FC6DAE-3DD0-4514-A98D-961CD7A32E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA61AC7-5BEB-4250-BBDA-51FF23396E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="3735" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="2430" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>quick</t>
   </si>
@@ -62,18 +62,50 @@
   </si>
   <si>
     <t xml:space="preserve"> - starts falling behind at 100 elements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Conclusion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> In my usage of sorting bubble sort was the worst from 100 elements, also my mergeSort implementation started to get really clunky at 100000 elements and couldn't even compile at 1000000 elements. I've found some optimization in the internet, but i thought its better to stay it like that to show the difference, because from what i've seen it's classic way to write mergeSort</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,31 +194,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -470,7 +508,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,69 +522,69 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="9" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="9" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="8"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
       <c r="C4">
@@ -584,13 +622,13 @@
       <c r="M4">
         <v>1.5E-3</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <f t="shared" ref="N4:N8" si="1">(K4+L4+M4)/3</f>
         <v>1.7933333333333332E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>100</v>
       </c>
       <c r="C5">
@@ -628,7 +666,7 @@
       <c r="M5" s="6">
         <v>0.39529999999999998</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="12">
         <f t="shared" si="1"/>
         <v>0.40599999999999997</v>
       </c>
@@ -637,7 +675,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>1000</v>
       </c>
       <c r="C6">
@@ -675,13 +713,13 @@
       <c r="M6">
         <v>6.0218999999999996</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <f t="shared" si="1"/>
         <v>6.3616999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>10000</v>
       </c>
       <c r="C7">
@@ -719,13 +757,13 @@
       <c r="M7">
         <v>413.90350000000001</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <f t="shared" si="1"/>
         <v>418.09323333333333</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>100000</v>
       </c>
       <c r="C8">
@@ -763,22 +801,74 @@
       <c r="M8">
         <v>40659.206899999997</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <f t="shared" si="1"/>
         <v>41644.061999999998</v>
       </c>
     </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+    </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="H14" s="1"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -823,11 +913,12 @@
       <c r="F21" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B11:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\javascript\solvd-homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA61AC7-5BEB-4250-BBDA-51FF23396E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305D486F-E553-46C7-B9D9-AFD0CE8DCEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3195" yWindow="2430" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,6 +85,43 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> In my usage of sorting bubble sort was the worst from 100 elements, also my mergeSort implementation started to get really clunky at 100000 elements and couldn't even compile at 1000000 elements. I've found some optimization in the internet, but i thought its better to stay it like that to show the difference, because from what i've seen it's classic way to write mergeSort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Why mergeS and quickS are better in bigger datasets: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) They both have O(nlogn) while bubbleS has O(n^2)
+2) bubbleS doesnt benefit from partially sort list, while quick and merge both have this "adaptivity".</t>
     </r>
   </si>
 </sst>
@@ -194,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -218,9 +255,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -505,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,8 +840,8 @@
         <v>41644.061999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+    <row r="11" spans="1:15" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="16"/>
@@ -823,52 +857,18 @@
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-    </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -882,35 +882,10 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="D17" s="1"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -918,7 +893,7 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B11:N14"/>
+    <mergeCell ref="B11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
